--- a/Project 2/data_sets/pickup_19.xlsx
+++ b/Project 2/data_sets/pickup_19.xlsx
@@ -1,43 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20346"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E52F54-686C-4033-8CF6-527C4407F16C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="pickup window" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="pickup window"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>start</t>
+    <t>Start</t>
   </si>
   <si>
-    <t>stop</t>
+    <t>Stop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,7 +50,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -60,38 +69,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -118,22 +129,82 @@
         <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -145,131 +216,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -280,19 +378,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -300,152 +400,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="2">
-        <v>0.48600694444444442</v>
+        <v>1.4860069444444444</v>
       </c>
       <c r="B2" s="2">
-        <v>0.4866550925925926</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4866550925925925</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="2">
-        <v>0.48672453703703705</v>
+        <v>1.486724537037037</v>
       </c>
       <c r="B3" s="2">
-        <v>0.48714120370370373</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4871412037037037</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="2">
-        <v>0.48730324074074072</v>
+        <v>1.4873032407407407</v>
       </c>
       <c r="B4" s="2">
-        <v>0.48853009259259261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4885300925925926</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="2">
-        <v>0.48861111111111111</v>
+        <v>1.488611111111111</v>
       </c>
       <c r="B5" s="2">
-        <v>0.4894444444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4894444444444446</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="2">
-        <v>0.48951388888888886</v>
+        <v>1.4895138888888888</v>
       </c>
       <c r="B6" s="2">
-        <v>0.49084490740740744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4908449074074075</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="2">
-        <v>0.49092592592592593</v>
+        <v>1.490925925925926</v>
       </c>
       <c r="B7" s="2">
-        <v>0.49098379629629635</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4909837962962964</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="2">
-        <v>0.49087962962962961</v>
+        <v>1.4908796296296296</v>
       </c>
       <c r="B8" s="2">
-        <v>0.49652777777777773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4965277777777777</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="2">
-        <v>0.49659722222222219</v>
+        <v>1.4965972222222224</v>
       </c>
       <c r="B9" s="2">
-        <v>0.4971180555555556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4971180555555557</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="2">
-        <v>0.49193287037037042</v>
+        <v>1.4919328703703703</v>
       </c>
       <c r="B10" s="2">
-        <v>0.49234953703703704</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.492349537037037</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2">
-        <v>0.49200231481481477</v>
+        <v>1.492002314814815</v>
       </c>
       <c r="B11" s="2">
-        <v>0.49322916666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4932291666666666</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="2">
-        <v>0.49331018518518516</v>
+        <v>1.493310185185185</v>
       </c>
       <c r="B12" s="2">
-        <v>0.49385416666666665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4938541666666667</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="2">
-        <v>0.49387731481481478</v>
+        <v>1.4938773148148148</v>
       </c>
       <c r="B13" s="2">
-        <v>0.49461805555555555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4946180555555555</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="2">
-        <v>0.49399305555555556</v>
+        <v>1.4939930555555556</v>
       </c>
       <c r="B14" s="2">
-        <v>0.49538194444444444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4953819444444445</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="2">
-        <v>0.49543981481481486</v>
+        <v>1.495439814814815</v>
       </c>
       <c r="B15" s="2">
-        <v>0.49579861111111106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4957986111111112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="2">
-        <v>0.49731481481481482</v>
+        <v>1.4973148148148148</v>
       </c>
       <c r="B16" s="2">
-        <v>0.4993055555555555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.4993055555555554</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="2">
-        <v>0.50041666666666662</v>
+        <v>1.5004166666666667</v>
       </c>
       <c r="B17" s="2">
-        <v>0.50107638888888884</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.501076388888889</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="2">
-        <v>0.5068287037037037</v>
+        <v>1.5068287037037038</v>
       </c>
       <c r="B18" s="2">
-        <v>0.50706018518518514</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1.507060185185185</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="2">
-        <v>0.50990740740740736</v>
+        <v>1.5099074074074075</v>
       </c>
       <c r="B19" s="2">
-        <v>0.51047453703703705</v>
+        <v>1.510474537037037</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>